--- a/informacion.xlsx
+++ b/informacion.xlsx
@@ -16,40 +16,41 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
-    <x:t xml:space="preserve">        Television Samsung SmarTV Led 4k Crystal UHD con HDR10, Motion Rate 120, Modelo 2020 Class TU700D (Reacondicionado)       </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$7,299.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amazon.com.mx/Televisión-Samsung-SmarTV-Crystal-Renewed/dp/B08WR9M6KV/ref=sr_1_1_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=6FA3B2TVOMAA&amp;keywords=Television&amp;qid=1656615240&amp;sprefix=television%2Caps%2C134&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExOEE5NUxYVEZPOTFSJmVuY3J5cHRlZElkPUEwOTEzMjgwSUhOUlkwSU5GWTBZJmVuY3J5cHRlZEFkSWQ9QTAzNDU5MzUzNzlIU0VJOFNZOU1UJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">        TCL Television 32" HD LED 720p Android TV HDMI USB Netflix Youtube Disney+ Prime Video 32S21(Reacondicionado)       </x:t>
   </x:si>
   <x:si>
-    <x:t>$3,499.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amazon.com.mx/TCL-Television-Android-Netflix-Reacondicionado/dp/B09LF4QLK7/ref=sr_1_2_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=6FA3B2TVOMAA&amp;keywords=Television&amp;qid=1656615317&amp;sprefix=television%2Caps%2C134&amp;sr=8-2-spons&amp;ufe=app_do%3Aamzn1.fos.649fe0ca-1cbf-43f1-a365-f15699263f39&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzREVIV1pCU0tYSlNPJmVuY3J5cHRlZElkPUEwMTkwMzk1M0RGQjNTMFRSRVJHNSZlbmNyeXB0ZWRBZElkPUEwMjEzMjY4M0I2TDE0RlFJRDJETyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">         Telvision Onn 100002430 HD 24 pulgadas Pantalla LED Alta definicion 720P HDMI TV USB (Reacondicionado)              </x:t>
+    <x:t xml:space="preserve">             $3,499.00$3,499.00        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>amazon.com.mx/TCL-Television-Android-Netflix-Reacondicionado/dp/B09LF4QLK7/ref=sr_1_1_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=2K89OBS31FFI5&amp;keywords=Television&amp;qid=1656620696&amp;sprefix=television%2Caps%2C152&amp;sr=8-1-spons&amp;ufe=app_do%3Aamzn1.fos.649fe0ca-1cbf-43f1-a365-f15699263f39&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFXWVAxQ1RUNDUxMlomZW5jcnlwdGVkSWQ9QTAyOTYyNDExREhXVFZDNVZFNlZMJmVuY3J5cHRlZEFkSWQ9QTAyMTMyNjgzQjZMMTRGUUlEMkRPJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">        Telvision Onn 100002430 HD 24 pulgadas Pantalla LED Alta definicion 720P HDMI TV USB (Reacondicionado)       </x:t>
   </x:si>
   <x:si>
     <x:t>$2,999.00</x:t>
   </x:si>
   <x:si>
-    <x:t>amazon.com.mx/Smart-pulgadas-clase-100012590-Renewed/dp/B08MBVZXHK/ref=sr_1_3_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=6FA3B2TVOMAA&amp;keywords=Television&amp;qid=1656615317&amp;sprefix=television%2Caps%2C134&amp;sr=8-3-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzREVIV1pCU0tYSlNPJmVuY3J5cHRlZElkPUEwMTkwMzk1M0RGQjNTMFRSRVJHNSZlbmNyeXB0ZWRBZElkPUEwNjk3MzgwM0JQVEsyN0RYTjlDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</x:t>
+    <x:t>amazon.com.mx/Smart-pulgadas-clase-100012590-Renewed/dp/B08MBVZXHK/ref=sr_1_2_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=2K89OBS31FFI5&amp;keywords=Television&amp;qid=1656620777&amp;sprefix=television%2Caps%2C152&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFWTlhRS0ZFN0NMQzMmZW5jcnlwdGVkSWQ9QTA2NTUyMTFZUVFTVVZSSzVMUFgmZW5jcnlwdGVkQWRJZD1BMDY5NzM4MDNCUFRLMjdEWE45QyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">        TCL Television de 55" 4-Series Class 4K (2160p) Ultra HD HDR Smart LED TV Compatible con Netflix, Youtube, Disney+ y Apple TV - 55S431 (Reacondicionado)       </x:t>
   </x:si>
   <x:si>
-    <x:t>$7,499.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amazon.com.mx/TCL-Television-Compatible-Netflix-Youtube/dp/B09VLNFVSQ/ref=sr_1_4_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=1ZQHXFWOCKWX9&amp;keywords=Television&amp;qid=1656615093&amp;sprefix=television%2Caps%2C166&amp;sr=8-4-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyUUdQWDdQVDA2V09RJmVuY3J5cHRlZElkPUEwMzcxOTYzWUpVR1M1Uk8zQTQ3JmVuY3J5cHRlZEFkSWQ9QTA3NTg5NzEzNklJMjhZVEhUWDkxJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</x:t>
+    <x:t xml:space="preserve">       $7,499.00$7,499.00                
+           </x:t>
+  </x:si>
+  <x:si>
+    <x:t>amazon.com.mx/TCL-Television-Compatible-Netflix-Youtube/dp/B09VLNFVSQ/ref=sr_1_3_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=2K89OBS31FFI5&amp;keywords=Television&amp;qid=1656620777&amp;sprefix=television%2Caps%2C152&amp;sr=8-3-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFWTlhRS0ZFN0NMQzMmZW5jcnlwdGVkSWQ9QTA2NTUyMTFZUVFTVVZSSzVMUFgmZW5jcnlwdGVkQWRJZD1BMDc1ODk3MTM2SUkyOFlUSFRYOTEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">        LG Television de 50" Class 4K (2160p) LED Smart TV Compatible con Netflix, Youtube, Disney+ y Apple TV - 50UN6955ZUF (Reacondicionado)       </x:t>
+  </x:si>
+  <x:si>
+    <x:t>$8,999.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amazon.com.mx/LG-Television-Compatible-Netflix-Youtube/dp/B09W83JXM4/ref=sr_1_4_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=14XSEYXWJSW9D&amp;keywords=Television&amp;qid=1656620703&amp;sprefix=television%2Caps%2C121&amp;sr=8-4-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFWMFYzTlFaMEJMV1MmZW5jcnlwdGVkSWQ9QTA3ODcwMDgzTUYwTVZQV1NNOVc4JmVuY3J5cHRlZEFkSWQ9QTA2ODMyMjQyNlRMT0tKT05ZUDdCJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/informacion.xlsx
+++ b/informacion.xlsx
@@ -1,119 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Hoja1" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaque\CapacitacionCR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537C7C4-BBB7-4515-A15A-CBA97EA812E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <x:si>
-    <x:t xml:space="preserve">        TCL Television 32" HD LED 720p Android TV HDMI USB Netflix Youtube Disney+ Prime Video 32S21(Reacondicionado)       </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">             $3,499.00$3,499.00        </x:t>
-  </x:si>
-  <x:si>
-    <x:t>amazon.com.mx/TCL-Television-Android-Netflix-Reacondicionado/dp/B09LF4QLK7/ref=sr_1_1_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=2K89OBS31FFI5&amp;keywords=Television&amp;qid=1656620696&amp;sprefix=television%2Caps%2C152&amp;sr=8-1-spons&amp;ufe=app_do%3Aamzn1.fos.649fe0ca-1cbf-43f1-a365-f15699263f39&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFXWVAxQ1RUNDUxMlomZW5jcnlwdGVkSWQ9QTAyOTYyNDExREhXVFZDNVZFNlZMJmVuY3J5cHRlZEFkSWQ9QTAyMTMyNjgzQjZMMTRGUUlEMkRPJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">        Telvision Onn 100002430 HD 24 pulgadas Pantalla LED Alta definicion 720P HDMI TV USB (Reacondicionado)       </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$2,999.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amazon.com.mx/Smart-pulgadas-clase-100012590-Renewed/dp/B08MBVZXHK/ref=sr_1_2_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=2K89OBS31FFI5&amp;keywords=Television&amp;qid=1656620777&amp;sprefix=television%2Caps%2C152&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFWTlhRS0ZFN0NMQzMmZW5jcnlwdGVkSWQ9QTA2NTUyMTFZUVFTVVZSSzVMUFgmZW5jcnlwdGVkQWRJZD1BMDY5NzM4MDNCUFRLMjdEWE45QyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">        TCL Television de 55" 4-Series Class 4K (2160p) Ultra HD HDR Smart LED TV Compatible con Netflix, Youtube, Disney+ y Apple TV - 55S431 (Reacondicionado)       </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       $7,499.00$7,499.00                
-           </x:t>
-  </x:si>
-  <x:si>
-    <x:t>amazon.com.mx/TCL-Television-Compatible-Netflix-Youtube/dp/B09VLNFVSQ/ref=sr_1_3_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=2K89OBS31FFI5&amp;keywords=Television&amp;qid=1656620777&amp;sprefix=television%2Caps%2C152&amp;sr=8-3-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFWTlhRS0ZFN0NMQzMmZW5jcnlwdGVkSWQ9QTA2NTUyMTFZUVFTVVZSSzVMUFgmZW5jcnlwdGVkQWRJZD1BMDc1ODk3MTM2SUkyOFlUSFRYOTEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">        LG Television de 50" Class 4K (2160p) LED Smart TV Compatible con Netflix, Youtube, Disney+ y Apple TV - 50UN6955ZUF (Reacondicionado)       </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$8,999.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amazon.com.mx/LG-Television-Compatible-Netflix-Youtube/dp/B09W83JXM4/ref=sr_1_4_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=14XSEYXWJSW9D&amp;keywords=Television&amp;qid=1656620703&amp;sprefix=television%2Caps%2C121&amp;sr=8-4-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFWMFYzTlFaMEJMV1MmZW5jcnlwdGVkSWQ9QTA3ODcwMDgzTUYwTVZQV1NNOVc4JmVuY3J5cHRlZEFkSWQ9QTA2ODMyMjQyNlRMT0tKT05ZUDdCJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pantalla Hisense 43" 4K UHD Android TV con Control de Voz 43A6G (2021)       </t>
+  </si>
+  <si>
+    <t>7,189.</t>
+  </si>
+  <si>
+    <t>amazon.com.mx/Pantalla-Hisense-Android-Control-43A6G/dp/B08Z9T3YBY/ref=sr_1_1_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=10AUA4Q1IX79I&amp;keywords=Television&amp;qid=1656633076&amp;sprefix=television%2Caps%2C136&amp;sr=8-1-spons&amp;ufe=app_do%3Aamzn1.fos.649fe0ca-1cbf-43f1-a365-f15699263f39&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExUlk0UjlVTVFGWlY4JmVuY3J5cHRlZElkPUEwNzgzMDE0MUxBMThJRjFSNkxNRiZlbmNyeXB0ZWRBZElkPUEwMjE1NDcxM1M3WjNUTDlFOUZTQSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TCL Television 32" HD LED 720p Android TV HDMI USB Netflix Youtube Disney+ Prime Video 32S21(Reacondicionado)       </t>
+  </si>
+  <si>
+    <t>amazon.com.mx/TCL-Television-Android-Netflix-Reacondicionado/dp/B09LF4QLK7/ref=sr_1_2_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=3E9UCI9B85LF2&amp;keywords=Television&amp;qid=1656633129&amp;sprefix=television%2Caps%2C127&amp;sr=8-2-spons&amp;ufe=app_do%3Aamzn1.fos.649fe0ca-1cbf-43f1-a365-f15699263f39&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFRMUUwOVhDMFU5RlYmZW5jcnlwdGVkSWQ9QTA2Njg4MDYxWkpJTTNCMFlBOURDJmVuY3J5cHRlZEFkSWQ9QTAyMTMyNjgzQjZMMTRGUUlEMkRPJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Telvision Onn 100002430 HD 24 pulgadas Pantalla LED Alta definicion 720P HDMI TV USB (Reacondicionado)       </t>
+  </si>
+  <si>
+    <t>amazon.com.mx/Smart-pulgadas-clase-100012590-Renewed/dp/B08MBVZXHK/ref=sr_1_3_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=3E9UCI9B85LF2&amp;keywords=Television&amp;qid=1656633129&amp;sprefix=television%2Caps%2C127&amp;sr=8-3-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFRMUUwOVhDMFU5RlYmZW5jcnlwdGVkSWQ9QTA2Njg4MDYxWkpJTTNCMFlBOURDJmVuY3J5cHRlZEFkSWQ9QTA2OTczODAzQlBUSzI3RFhOOUMmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         TCL Television de 55" 4-Series Class 4K (2160p) Ultra HD HDR Smart LED TV Compatible con Netflix, Youtube, Disney+ y Apple TV - 55S431 (Reacondicionado)              </t>
+  </si>
+  <si>
+    <t>amazon.com.mx/TCL-Television-Compatible-Netflix-Youtube/dp/B09VLNFVSQ/ref=sr_1_4_sspa?__mk_es_MX=ÅMÅŽÕÑ&amp;crid=3E9UCI9B85LF2&amp;keywords=Television&amp;qid=1656633129&amp;sprefix=television%2Caps%2C127&amp;sr=8-4-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFRMUUwOVhDMFU5RlYmZW5jcnlwdGVkSWQ9QTA2Njg4MDYxWkpJTTNCMFlBOURDJmVuY3J5cHRlZEFkSWQ9QTA3NTg5NzEzNklJMjhZVEhUWDkxJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -396,66 +401,77 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3499</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2999</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7499</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>